--- a/1차_가공/경희대학교 국제캠퍼스 22년 1학기 1차 가공 완료.xlsx
+++ b/1차_가공/경희대학교 국제캠퍼스 22년 1학기 1차 가공 완료.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17972" uniqueCount="6416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17974" uniqueCount="6416">
   <si>
     <t>대학교명</t>
   </si>
@@ -6607,7 +6607,7 @@
     <t>물리학실험I</t>
   </si>
   <si>
-    <t>응용물리 세미나</t>
+    <t>응용물리세미나</t>
   </si>
   <si>
     <t>응용물리개론</t>
@@ -6862,13 +6862,13 @@
     <t>현대물리실험</t>
   </si>
   <si>
-    <t>취·창업스쿨(4차 산업혁명시대 진로와 창업)</t>
+    <t>취·창업스쿨(4차산업혁명시대진로와창업)</t>
   </si>
   <si>
     <t>취·창업스쿨(공학분야)</t>
   </si>
   <si>
-    <t>취·창업스쿨(국제기구, NGO분야)</t>
+    <t>취·창업스쿨(국제기구,NGO분야)</t>
   </si>
   <si>
     <t>취·창업스쿨(멘토링과함께하는커리어컨설팅)</t>
@@ -6961,16 +6961,16 @@
     <t>특수교육학개론</t>
   </si>
   <si>
-    <t>학교폭력 예방 및 학생의 이해</t>
+    <t>학교폭력예방및학생의이해</t>
   </si>
   <si>
     <t>학교현장실습</t>
   </si>
   <si>
-    <t>Critical Reading and Writing 2</t>
-  </si>
-  <si>
-    <t>Speech and Discussion 2</t>
+    <t>CriticalReadingandWriting2</t>
+  </si>
+  <si>
+    <t>SpeechandDiscussion2</t>
   </si>
   <si>
     <t>문화연구입문</t>
@@ -6982,10 +6982,10 @@
     <t>영어학입문</t>
   </si>
   <si>
-    <t>Critical Reading and Writing 1</t>
-  </si>
-  <si>
-    <t>Speech and Discussion 1</t>
+    <t>CriticalReadingandWriting1</t>
+  </si>
+  <si>
+    <t>SpeechandDiscussion1</t>
   </si>
   <si>
     <t>비즈니스커뮤니케이션2</t>
@@ -7627,7 +7627,7 @@
     <t>현대건축사</t>
   </si>
   <si>
-    <t>BIM과 IPD</t>
+    <t>BIM과IPD</t>
   </si>
   <si>
     <t>건축조형론</t>
@@ -7804,7 +7804,7 @@
     <t>기초프로그래밍</t>
   </si>
   <si>
-    <t>Adventure Design</t>
+    <t>AdventureDesign</t>
   </si>
   <si>
     <t>논리회로</t>
@@ -8218,7 +8218,7 @@
     <t>모션그래픽스</t>
   </si>
   <si>
-    <t>미디어디자인 프로젝트1</t>
+    <t>미디어디자인프로젝트1</t>
   </si>
   <si>
     <t>비주얼디자인</t>
@@ -8233,7 +8233,7 @@
     <t>영상프로젝트1</t>
   </si>
   <si>
-    <t>인터랙티브 미디어 디자인</t>
+    <t>인터랙티브미디어디자인</t>
   </si>
   <si>
     <t>촬영기법</t>
@@ -8293,7 +8293,7 @@
     <t>3D디자인I</t>
   </si>
   <si>
-    <t>Space Analysis 1</t>
+    <t>SpaceAnalysis1</t>
   </si>
   <si>
     <t>공간디자인1</t>
@@ -8443,13 +8443,13 @@
     <t>도자제품브랜드1</t>
   </si>
   <si>
-    <t>SeniorProject I-A</t>
-  </si>
-  <si>
-    <t>SeniorProject I-B</t>
-  </si>
-  <si>
-    <t>기초유리-Cold Working</t>
+    <t>SeniorProjectI-A</t>
+  </si>
+  <si>
+    <t>SeniorProjectI-B</t>
+  </si>
+  <si>
+    <t>기초유리-ColdWorking</t>
   </si>
   <si>
     <t>도자사</t>
@@ -8854,154 +8854,154 @@
     <t>K-Pop:KoreanPopCulture</t>
   </si>
   <si>
-    <t>Advanced Korean 1</t>
-  </si>
-  <si>
-    <t>High-Intermediate Korean 1</t>
-  </si>
-  <si>
-    <t>Beginner Korean 1</t>
-  </si>
-  <si>
-    <t>Major Issues in International Studies</t>
-  </si>
-  <si>
-    <t>Statistics for Social Science</t>
-  </si>
-  <si>
-    <t>American Foreign Policy</t>
-  </si>
-  <si>
-    <t>Blockchain and Cryptocurrency</t>
-  </si>
-  <si>
-    <t>Business Finance</t>
-  </si>
-  <si>
-    <t>Comparative Area Studies</t>
-  </si>
-  <si>
-    <t>Consumer Behavior</t>
-  </si>
-  <si>
-    <t>Culture and International Relations</t>
-  </si>
-  <si>
-    <t>Culture and Society of Korea</t>
+    <t>AdvancedKorean1</t>
+  </si>
+  <si>
+    <t>High-IntermediateKorean1</t>
+  </si>
+  <si>
+    <t>BeginnerKorean1</t>
+  </si>
+  <si>
+    <t>MajorIssuesinInternationalStudies</t>
+  </si>
+  <si>
+    <t>StatisticsforSocialScience</t>
+  </si>
+  <si>
+    <t>AmericanForeignPolicy</t>
+  </si>
+  <si>
+    <t>BlockchainandCryptocurrency</t>
+  </si>
+  <si>
+    <t>BusinessFinance</t>
+  </si>
+  <si>
+    <t>ComparativeAreaStudies</t>
+  </si>
+  <si>
+    <t>ConsumerBehavior</t>
+  </si>
+  <si>
+    <t>CultureandInternationalRelations</t>
+  </si>
+  <si>
+    <t>CultureandSocietyofKorea</t>
   </si>
   <si>
     <t>Econometrics</t>
   </si>
   <si>
-    <t>Economics of Poverty</t>
-  </si>
-  <si>
-    <t>Global Data Analysis for Economics and Business</t>
-  </si>
-  <si>
-    <t>Human Rights in East Asia</t>
-  </si>
-  <si>
-    <t>Industrial Organization</t>
-  </si>
-  <si>
-    <t>International Business</t>
-  </si>
-  <si>
-    <t>International Conflict and Resolution</t>
-  </si>
-  <si>
-    <t>International Finance</t>
-  </si>
-  <si>
-    <t>International Negotiations</t>
-  </si>
-  <si>
-    <t>International Organizations</t>
-  </si>
-  <si>
-    <t>International Political Economy</t>
-  </si>
-  <si>
-    <t>International Security</t>
-  </si>
-  <si>
-    <t>International Trade</t>
-  </si>
-  <si>
-    <t>Korean Foreign Policy</t>
-  </si>
-  <si>
-    <t>Korean Politics and Economy</t>
-  </si>
-  <si>
-    <t>Law &amp; Global Governance</t>
+    <t>EconomicsofPoverty</t>
+  </si>
+  <si>
+    <t>GlobalDataAnalysisforEconomicsandBusiness</t>
+  </si>
+  <si>
+    <t>HumanRightsinEastAsia</t>
+  </si>
+  <si>
+    <t>IndustrialOrganization</t>
+  </si>
+  <si>
+    <t>InternationalBusiness</t>
+  </si>
+  <si>
+    <t>InternationalConflictandResolution</t>
+  </si>
+  <si>
+    <t>InternationalFinance</t>
+  </si>
+  <si>
+    <t>InternationalNegotiations</t>
+  </si>
+  <si>
+    <t>InternationalOrganizations</t>
+  </si>
+  <si>
+    <t>InternationalPoliticalEconomy</t>
+  </si>
+  <si>
+    <t>InternationalSecurity</t>
+  </si>
+  <si>
+    <t>InternationalTrade</t>
+  </si>
+  <si>
+    <t>KoreanForeignPolicy</t>
+  </si>
+  <si>
+    <t>KoreanPoliticsandEconomy</t>
+  </si>
+  <si>
+    <t>Law&amp;GlobalGovernance</t>
   </si>
   <si>
     <t>Macroeconomics</t>
   </si>
   <si>
-    <t>Major Issues in Korean Politics and Society</t>
-  </si>
-  <si>
-    <t>Mathematics for Economics and Business</t>
+    <t>MajorIssuesinKoreanPoliticsandSociety</t>
+  </si>
+  <si>
+    <t>MathematicsforEconomicsandBusiness</t>
   </si>
   <si>
     <t>Microeconomics</t>
   </si>
   <si>
-    <t>North Korea and Inter-Korean Relations</t>
-  </si>
-  <si>
-    <t>Principles of Accounting</t>
-  </si>
-  <si>
-    <t>Principles of Marketing</t>
-  </si>
-  <si>
-    <t>State and Society in East Asia</t>
-  </si>
-  <si>
-    <t>Theories of Economic Growth</t>
-  </si>
-  <si>
-    <t>Topics in East Asian Studies I (H)</t>
-  </si>
-  <si>
-    <t>Topics in International Development Cooperation (H)</t>
-  </si>
-  <si>
-    <t>Topics in International Economy</t>
-  </si>
-  <si>
-    <t>Topics in Marketing (H)</t>
-  </si>
-  <si>
-    <t>Topics in Microeconomics (H)</t>
-  </si>
-  <si>
-    <t>Understanding Foreign Policy</t>
-  </si>
-  <si>
-    <t>Understanding International Development Cooperation</t>
-  </si>
-  <si>
-    <t>Understanding International Law</t>
-  </si>
-  <si>
-    <t>War and Peace</t>
-  </si>
-  <si>
-    <t>Introduction to Economics I</t>
-  </si>
-  <si>
-    <t>Introduction to Economics II</t>
-  </si>
-  <si>
-    <t>Introduction to International Relations</t>
-  </si>
-  <si>
-    <t>Introduction to Political Science</t>
+    <t>NorthKoreaandInter-KoreanRelations</t>
+  </si>
+  <si>
+    <t>PrinciplesofAccounting</t>
+  </si>
+  <si>
+    <t>PrinciplesofMarketing</t>
+  </si>
+  <si>
+    <t>StateandSocietyinEastAsia</t>
+  </si>
+  <si>
+    <t>TheoriesofEconomicGrowth</t>
+  </si>
+  <si>
+    <t>TopicsinEastAsianStudiesI(H)</t>
+  </si>
+  <si>
+    <t>TopicsinInternationalDevelopmentCooperation(H)</t>
+  </si>
+  <si>
+    <t>TopicsinInternationalEconomy</t>
+  </si>
+  <si>
+    <t>TopicsinMarketing(H)</t>
+  </si>
+  <si>
+    <t>TopicsinMicroeconomics(H)</t>
+  </si>
+  <si>
+    <t>UnderstandingForeignPolicy</t>
+  </si>
+  <si>
+    <t>UnderstandingInternationalDevelopmentCooperation</t>
+  </si>
+  <si>
+    <t>UnderstandingInternationalLaw</t>
+  </si>
+  <si>
+    <t>WarandPeace</t>
+  </si>
+  <si>
+    <t>IntroductiontoEconomicsI</t>
+  </si>
+  <si>
+    <t>IntroductiontoEconomicsII</t>
+  </si>
+  <si>
+    <t>IntroductiontoInternationalRelations</t>
+  </si>
+  <si>
+    <t>IntroductiontoPoliticalScience</t>
   </si>
   <si>
     <t>미분적분학</t>
@@ -9346,7 +9346,7 @@
     <t>현대사회키워드로스포츠읽기</t>
   </si>
   <si>
-    <t>고급 미분적분학</t>
+    <t>고급미분적분학</t>
   </si>
   <si>
     <t>고양이의물리학:자연계의숨은법칙</t>
@@ -9358,7 +9358,7 @@
     <t>공학기초수학</t>
   </si>
   <si>
-    <t>기초 미분적분학</t>
+    <t>기초미분적분학</t>
   </si>
   <si>
     <t>생명과생명공학:자본,국가,과학,정치</t>
@@ -9394,7 +9394,7 @@
     <t>현대사회와과학</t>
   </si>
   <si>
-    <t>On Justice</t>
+    <t>OnJustice</t>
   </si>
   <si>
     <t>경제학적사유의원리</t>
@@ -9460,7 +9460,7 @@
     <t>다이나믹한국근현대사</t>
   </si>
   <si>
-    <t>명작에취하다:예술 감상법</t>
+    <t>명작에취하다:예술감상법</t>
   </si>
   <si>
     <t>문화유산과역사지리</t>
@@ -9556,7 +9556,7 @@
     <t>현대생활과체육</t>
   </si>
   <si>
-    <t>4차산업의이해와IOT기술 활용과분석</t>
+    <t>4차산업의이해와IOT기술활용과분석</t>
   </si>
   <si>
     <t>기업윤리와사회적책임</t>
@@ -9619,10 +9619,10 @@
     <t>조직리더십</t>
   </si>
   <si>
-    <t>Advanced English for International Contexts</t>
-  </si>
-  <si>
-    <t>Intermediate English for International Contexts</t>
+    <t>AdvancedEnglishforInternationalContexts</t>
+  </si>
+  <si>
+    <t>IntermediateEnglishforInternationalContexts</t>
   </si>
   <si>
     <t>영토의경계와흔적:이민,이주,이동</t>
@@ -9994,16 +9994,16 @@
     <t>강신녀</t>
   </si>
   <si>
-    <t>이재복 / 박진우</t>
-  </si>
-  <si>
-    <t>이재복 / 김성호</t>
-  </si>
-  <si>
-    <t>박진우 / 이수경</t>
-  </si>
-  <si>
-    <t>김성호 / 박진우</t>
+    <t>이재복,박진우</t>
+  </si>
+  <si>
+    <t>이재복,김성호</t>
+  </si>
+  <si>
+    <t>박진우,이수경</t>
+  </si>
+  <si>
+    <t>김성호,박진우</t>
   </si>
   <si>
     <t>전문규</t>
@@ -10123,7 +10123,7 @@
     <t>임승태</t>
   </si>
   <si>
-    <t>김정민 / 신동아</t>
+    <t>김정민,신동아</t>
   </si>
   <si>
     <t>박종현</t>
@@ -10132,7 +10132,7 @@
     <t>권미나</t>
   </si>
   <si>
-    <t>서혜선 / 김규진</t>
+    <t>서혜선,김규진</t>
   </si>
   <si>
     <t>이지현</t>
@@ -10141,7 +10141,7 @@
     <t>이은혜</t>
   </si>
   <si>
-    <t>홍정원 / 서혜선</t>
+    <t>홍정원,서혜선</t>
   </si>
   <si>
     <t>김수진</t>
@@ -10534,7 +10534,7 @@
     <t>김찬기</t>
   </si>
   <si>
-    <t>Armando Daniel Bazan / 김보영</t>
+    <t>Armando Daniel Bazan,김보영</t>
   </si>
   <si>
     <t>Merce Mundet Tarrago</t>
@@ -10807,7 +10807,7 @@
     <t>정신규</t>
   </si>
   <si>
-    <t>구준모 / 김형진 / 김진균</t>
+    <t>구준모,김형진,김진균</t>
   </si>
   <si>
     <t>황의승</t>
@@ -10822,16 +10822,16 @@
     <t>신용석</t>
   </si>
   <si>
-    <t>황의승 / 주부석</t>
-  </si>
-  <si>
-    <t>강두선 / 오승대 / 김석현</t>
+    <t>황의승,주부석</t>
+  </si>
+  <si>
+    <t>강두선,오승대,김석현</t>
   </si>
   <si>
     <t>김성민</t>
   </si>
   <si>
-    <t>김석현 / ..</t>
+    <t>김석현,..</t>
   </si>
   <si>
     <t>신규범</t>
@@ -10942,7 +10942,7 @@
     <t>윤성민</t>
   </si>
   <si>
-    <t>정재웅 / 정선호</t>
+    <t>정재웅,정선호</t>
   </si>
   <si>
     <t>이제욱</t>
@@ -11272,7 +11272,7 @@
     <t>정지혜</t>
   </si>
   <si>
-    <t>이은주 / 장성환 / 이창길</t>
+    <t>이은주,장성환,이창길</t>
   </si>
   <si>
     <t>박상희</t>
@@ -11293,7 +11293,7 @@
     <t>한세진</t>
   </si>
   <si>
-    <t>김형석 / 김현영</t>
+    <t>김형석,김현영</t>
   </si>
   <si>
     <t>김숭현</t>
@@ -11332,7 +11332,7 @@
     <t>김칠순</t>
   </si>
   <si>
-    <t>최정욱 / 이규선</t>
+    <t>최정욱,이규선</t>
   </si>
   <si>
     <t>이경아</t>
@@ -11374,10 +11374,10 @@
     <t>윤상원</t>
   </si>
   <si>
-    <t>김규현 / 장광집</t>
-  </si>
-  <si>
-    <t>김선철 / 이동민</t>
+    <t>김규현,장광집</t>
+  </si>
+  <si>
+    <t>김선철,이동민</t>
   </si>
   <si>
     <t>최유식</t>
@@ -11536,7 +11536,7 @@
     <t>왕준식</t>
   </si>
   <si>
-    <t>박현 / 박지홍 / 김정현 / 왕준식</t>
+    <t>박현,박지홍,김정현,왕준식</t>
   </si>
   <si>
     <t>박지홍</t>
@@ -11617,7 +11617,7 @@
     <t>김명준</t>
   </si>
   <si>
-    <t>김용호 / 강은주 / 이민형</t>
+    <t>김용호,강은주,이민형</t>
   </si>
   <si>
     <t>문용재</t>
@@ -12046,10 +12046,10 @@
     <t>소지영</t>
   </si>
   <si>
-    <t>최석호 / 김성</t>
-  </si>
-  <si>
-    <t>이상원 / 이영식</t>
+    <t>최석호,김성</t>
+  </si>
+  <si>
+    <t>이상원,이영식</t>
   </si>
   <si>
     <t>김성</t>
@@ -12061,7 +12061,7 @@
     <t>김갑성</t>
   </si>
   <si>
-    <t>김관혁 / 강희</t>
+    <t>김관혁,강희</t>
   </si>
   <si>
     <t>맹성호</t>
@@ -12187,7 +12187,7 @@
     <t>김부용</t>
   </si>
   <si>
-    <t>이규선 / 김숙현</t>
+    <t>이규선,김숙현</t>
   </si>
   <si>
     <t>유지훈</t>
@@ -12340,13 +12340,13 @@
     <t>김범석</t>
   </si>
   <si>
-    <t>이창우 / ..</t>
+    <t>이창우,..</t>
   </si>
   <si>
     <t>Sharon Morrison</t>
   </si>
   <si>
-    <t>Brown Hyon Chol / ..</t>
+    <t>Brown Hyon Chol,..</t>
   </si>
   <si>
     <t>오환섭</t>
@@ -19619,7 +19619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2088"/>
+  <dimension ref="A1:L2089"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -94586,6 +94586,17 @@
         <v>5998</v>
       </c>
     </row>
+    <row r="2089" spans="1:12">
+      <c r="A2089" s="1">
+        <v>2087</v>
+      </c>
+      <c r="B2089" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2089" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1차_가공/경희대학교 국제캠퍼스 22년 1학기 1차 가공 완료.xlsx
+++ b/1차_가공/경희대학교 국제캠퍼스 22년 1학기 1차 가공 완료.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17974" uniqueCount="6416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17972" uniqueCount="6416">
   <si>
     <t>대학교명</t>
   </si>
@@ -19619,7 +19619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2089"/>
+  <dimension ref="A1:L2088"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -94586,17 +94586,6 @@
         <v>5998</v>
       </c>
     </row>
-    <row r="2089" spans="1:12">
-      <c r="A2089" s="1">
-        <v>2087</v>
-      </c>
-      <c r="B2089" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2089" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
